--- a/ozon_products.xlsx
+++ b/ozon_products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,17 +434,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="93" customWidth="1" min="2" max="2"/>
+    <col width="119" customWidth="1" min="2" max="2"/>
     <col width="24" customWidth="1" min="3" max="3"/>
     <col width="21" customWidth="1" min="4" max="4"/>
     <col width="17" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
-    <col width="22" customWidth="1" min="9" max="9"/>
-    <col width="55" customWidth="1" min="10" max="10"/>
-    <col width="34" customWidth="1" min="11" max="11"/>
-    <col width="55" customWidth="1" min="12" max="12"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="26" customWidth="1" min="9" max="9"/>
+    <col width="62" customWidth="1" min="10" max="10"/>
+    <col width="37" customWidth="1" min="11" max="11"/>
+    <col width="97" customWidth="1" min="12" max="12"/>
     <col width="180" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
@@ -518,402 +518,3156 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1600560273</t>
+          <t>900693610</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Кран шаровый муфтовый нержавеющий 2" Dn 50 вр/вр полнопроходный кислотостойкий AISI 316</t>
+          <t>Шаровый кран 1/2 дюйма RTP шаровой латунный вн/нар PN 40 ручка бабочка</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Краны</t>
+          <t>RTP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3210</t>
+          <t>333</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3423</t>
+          <t>356</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7999</t>
+          <t>688</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>321 отзыв</t>
+          <t>1 860 отзывов</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ИП СМОЛЯКОВА</t>
+          <t>Официальный магазин RTP</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/ip-smolyakova-2057053/</t>
+          <t>https://www.ozon.ru/seller/ofitsialnyy-magazin-rtp-998920/</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>ИП Смолякова Анна Николаевна</t>
+          <t>ООО "ЮТАРА"</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>324940100021248</t>
+          <t>140002, Московская область, г.о. Люберцы, г. Люберцы, Октябрьский пр-кт, д.1</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>https://ozon.ru/product/kran-sharovyy-muftovyy-nerzhaveyushchiy-2-dn-50-vr-vr-polnoprohodnyy-kislotostoykiy-aisi-316-1600560273/?at=PjtJ1wnvrcvNwygmt3zgqB9sARr6q0ixJwn10fERVBA</t>
+          <t>https://ozon.ru/product/sharovyy-kran-1-2-dyuyma-rtp-sharovoy-latunnyy-vn-nar-pn-40-ruchka-babochka-900693610/?at=08tYXvzwqcr6pZBpUnDMNJlTqy0pA7TWpJr7KSAz99j5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1607701524</t>
+          <t>754027633</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Кран шаровой МИНИ VIEIR1/2" НАР/НАР</t>
+          <t>Кран шаровой 1/4 для сухопарника самогонного аппарата</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>VIEIR</t>
+          <t>СССР</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>195</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>209</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>320</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>204 отзыва</t>
+          <t>957 отзывов</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ДОМ</t>
+          <t>Proper-hobby</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/dom-1747419/</t>
+          <t>https://www.ozon.ru/seller/proper-hobby-190383/</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>ИП Барышев Фрол Юрьевич</t>
+          <t>ИП Стрелец Павел Игоревич</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>324237500063459</t>
+          <t>321774600199542</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>https://ozon.ru/product/kran-sharovoy-mini-vieir1-2-nar-nar-1607701524/?at=XQtkPQZByhp50yOjhBwwO9riR7gRgPHWZpQA7hErzP4r</t>
+          <t>https://ozon.ru/product/kran-sharovoy-1-4-dlya-suhoparnika-samogonnogo-apparata-754027633/?at=28t02rQzPCQjkE6JIRjj35AS0VXwKAsRLRZXs9nMX7N</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2118807645</t>
+          <t>2106901409</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Кран шаровой угловой Bugatti Miami,латунь 1/2"x1/2" (08830001)</t>
+          <t>Кран шаровый 1/2 латунный с внутренней и наружной резьбой(2шт)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Bugatti Valvosanitaria</t>
+          <t>Краны</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>517</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>554</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21 отзыв</t>
+          <t>346 отзывов</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>PROFICLIMATE</t>
+          <t>AV-WATER</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/proficlimate-2356207/</t>
+          <t>https://www.ozon.ru/seller/av-water-2921658/</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>ИП Шабанов Тарлан Фархад Оглы</t>
+          <t>ИП Белоус Евгений Анатольевич</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>324774600669992</t>
+          <t>325665800094191</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>https://ozon.ru/product/kran-sharovoy-uglovoy-bugatti-miami-latun-1-2-x1-2-08830001-2118807645/?at=mqtkoxq1Khl7y5j6TvPnPrLCLGDMjmTZq20MktOQLW7j</t>
+          <t>https://ozon.ru/product/kran-sharovyy-1-2-latunnyy-s-vnutrenney-i-naruzhnoy-rezboy-2sht-2106901409/?at=16tLAgXN2cLloDOGF6GJKjgH9Lz6Ehw4OwOGUyYjJy5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1595529967</t>
+          <t>1309408987</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Кран шаровой сливной со штуцером, никелированный 3/8*14 ZSf.300.010314N</t>
+          <t>Кран шаровый Bugatti (306) 1/2" НВ ручка</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ZEISSLER</t>
+          <t>Bugatti Valvosanitaria</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>628</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>671</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>1067</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>37 отзывов</t>
+          <t>70 отзывов</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>TIM Сантехника</t>
+          <t>МИР САНТЕХНИКИ</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/tim-santehnika-79127/</t>
+          <t>https://www.ozon.ru/seller/mir-santehniki-1540933/</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>ИП Гончаренко Надежда Николаевна</t>
+          <t>ИП Калантарян Лиана Жораевна</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>319500700011740</t>
+          <t>313344321400080</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>https://ozon.ru/product/kran-sharovoy-slivnoy-so-shtutserom-nikelirovannyy-3-8-14-zsf-300-010314n-1595529967/?at=83tB5GgOZfAzOmZEimEPYwzSXlDlDQUq11rB2HMrlvVz</t>
+          <t>https://ozon.ru/product/kran-sharovyy-bugatti-306-1-2-nv-ruchka-1309408987/?at=Eqtk8yj5Vhqq8jymtRmWBvZcoWq9OEiY8g46vU91gGz7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1656679467</t>
+          <t>1966437242</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Кран шаровой 1/4, флажковый (внутренняя резьба-внутренняя резьба)</t>
+          <t>Кран шаровый для воды 20х3/4" цанга-штуцер бабочка (2 шт)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>АвтоК</t>
+          <t>СТМ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>875</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>936</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>2699</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>233 отзыва</t>
+          <t>24 отзыва</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>АвтоК</t>
+          <t>ООО "САНТИМ-СТОЛИЦА"</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/seller/avtok-1533144/</t>
+          <t>https://www.ozon.ru/seller/ooo-santim-stolitsa-25830/</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>ИП Васильева Марина Николаевна</t>
+          <t>ООО САНТИМ-СТОЛИЦА</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>323547600188899</t>
+          <t>117418, Г.Москва, Москва, Новочерёмушкинская, 61, э.4</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>https://ozon.ru/product/kran-sharovoy-1-4-flazhkovyy-vnutrennyaya-rezba-vnutrennyaya-rezba-1656679467/?at=Z8tXq6YPVuoxAW20IP41O6PFknVYgmcpwnxGxs7Ookon</t>
+          <t>https://ozon.ru/product/kran-sharovyy-dlya-vody-20h3-4-tsanga-shtutser-babochka-2-sht-1966437242/?at=r2t4RMOlPhPjDjM3Ux3QEm9HZrXpPWszZDpw5IR6BoVB</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>174382094</t>
+          <t>1789303257</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Кран для стиральной машины угловой СTM 1/2"х1/2" штуцер-штуцер с отражателем бабочка, хром.</t>
+          <t>Кран шаровой ВР/НР 3/4" бабочка, с американкой ZEGOR (с антипротечкой)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>ZEGOR</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>833</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>891</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2499</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>6 отзывов</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>FEOTON</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/feoton-1258352/</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>ИП Гришин Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>320623400039833</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/kran-sharovoy-vr-nr-3-4-babochka-s-amerikankoy-zegor-s-antiprotechkoy-1789303257/?at=GRt2Nn95KiORZ2votvNQzpAs4Pnr0YIqN4o28sZyqVxg</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1410819187</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Шаровой кран ROMMER RBV-0003-2110215 1/2" ВН/ВН ручка бабочка</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ROMMER</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>495 отзывов</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Jakko</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/jakko-1384222/</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>ООО "ТЕХСТРОЙТОРГ"</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>142032, Россия, Московская Область, г Домодедово, Сиреневая аллея, 1, д 1А, 3 ком. 1</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/sharovoy-kran-rommer-rbv-0003-2110215-1-2-vn-vn-ruchka-babochka-1410819187/?at=83tB53gpDIyzrNmquyl4yVLHpk2RqEuL40W0XsB83ZGq</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2173876309</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Кран для газа 1/2 ВР-НР 40 BAR бабочка TEMPER</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>TEMPER</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1 отзыв</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>ФЛОДУС АРМ</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/flodus-arm-2709080/</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>ИП Чебанов Кирилл Игоревич</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>325745600043577</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/kran-dlya-gaza-1-2-vr-nr-40-bar-babochka-temper-2173876309/?at=83tB53gpDIVZKxGAHpMvYPQuWnRp5zuZP5voNfv8y7p8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>249499797</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Кран шаровой полнопроходной ВР-ВР, рычаг из алюминия Gappo G226.05 3/4"x3/4" уп. 1 шт.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Gappo</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Gappo Official Store</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/gappo-official-store-15864/</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>ИП Волченков Кирилл Алексеевич</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>318774600386550</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/kran-sharovoy-polnoprohodnoy-vr-vr-rychag-iz-alyuminiya-gappo-g226-05-3-4-x3-4-up-1-sht-249499797/?at=gpt416JZOhAD4XB6uJqQn44tz9x9AjsXER2jpi16r7yx</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>194418614</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Кран шаровый для воды 4" СTM СТАНДАРТ внутренняя резьба ручка-рычаг</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>СТМ</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>356</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>381</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1699</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10125</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>10778</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>23499</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>222 отзыва</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>397 отзывов</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>ООО "САНТИМ-СТОЛИЦА"</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>https://www.ozon.ru/seller/ooo-santim-stolitsa-25830/</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>ООО САНТИМ-СТОЛИЦА</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>117418, Г.Москва, Москва, Новочерёмушкинская, 61, э.4</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>https://ozon.ru/product/kran-dlya-stiralnoy-mashiny-uglovoy-stm-1-2-h1-2-shtutser-shtutser-s-otrazhatelem-babochka-hrom-174382094/?at=lRt6wrlO5cJVEZkyiXOZ8GBH1Gl1ROuo6vGYvcp3plk1</t>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/kran-sharovyy-dlya-vody-4-stm-standart-vnutrennyaya-rezba-ruchka-rychag-194418614/?at=08tYXvzwqc1oy54QTOjzpQQhZ1nyxcx20R1qHLAl0VW</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1449548532</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Кран шаровый 1/2" для воды рычаг, никель, ONDO</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ONDO</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1599</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>94 отзыва</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>ООО "САНТИМ-СТОЛИЦА"</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/ooo-santim-stolitsa-25830/</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>ООО САНТИМ-СТОЛИЦА</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>117418, Г.Москва, Москва, Новочерёмушкинская, 61, э.4</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/kran-sharovyy-1-2-dlya-vody-rychag-nikel-ondo-1449548532/?at=QktJ1VLjMcK1OOGps16DVP2i5Vp62YuXE92rlFZmw0E5</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1959846891</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Кран шаровый для воды 1/2" СTM СТАНДАРТ внутренняя резьба ручка-бабочка (2 шт)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>СТМ</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1599</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>209 отзывов</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>ООО "САНТИМ-СТОЛИЦА"</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/ooo-santim-stolitsa-25830/</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>ООО САНТИМ-СТОЛИЦА</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>117418, Г.Москва, Москва, Новочерёмушкинская, 61, э.4</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/kran-sharovyy-dlya-vody-1-2-stm-standart-vnutrennyaya-rezba-ruchka-babochka-2-sht-1959846891/?at=6WtZ6kJYjCQ3W9xVuE2m4qrtQNKk4kcrlXYPvfPvA0WB</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1893565034</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Oventrop Optibаl 1/2 ВН кран шаровой бабочка удлиненная, прямой</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>OVENTROP</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2146</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3019</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Байтнэт</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/baytnet-76009/</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>ИП Зотов Сергей Анатольевич</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>320619600102590</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/oventrop-optibal-1-2-vn-kran-sharovoy-babochka-udlinennaya-pryamoy-1893565034/?at=vQtrn1Zzpcl88ykVU7ELXV5FkR7Q9mc0PV8RBHpzYpvX</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>174299732</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Кран шаровый с накидной гайкой 1/2" для воды СTM СТАНДАРТ бабочка</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>СТМ</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1299</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>189 отзывов</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>ООО "САНТИМ-СТОЛИЦА"</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/ooo-santim-stolitsa-25830/</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>ООО САНТИМ-СТОЛИЦА</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>117418, Г.Москва, Москва, Новочерёмушкинская, 61, э.4</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/kran-sharovyy-s-nakidnoy-gaykoy-1-2-dlya-vody-stm-standart-babochka-174299732/?at=57twP81L5cz6o5lwc7rrxOEFzMkGY5ivAoEqYsRgng5N</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1047009997</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Кран шаровый со штуцером TIM 1/2" наружная резьба V02FM-3</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>TIM</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>57 отзывов</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Сантех-AR</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/santeh-ar-1194501/</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>ИП Гарсаян Армен Григорьевич</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>323508100273421</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/kran-sharovyy-so-shtutserom-tim-1-2-naruzhnaya-rezba-v02fm-3-1047009997/?at=36tWg3vz6hDW9NxztDwkKkEHYNqWo0hGmy5z5hZrLZBk</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1786557610</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Aqara Электропривод шарового крана T1 VC-X01D</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Aqara</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7601</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>7999</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10990</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>90 отзывов</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Aqara.ru</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/aqara-ru-81106/</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>ООО "СОФТМАСТЕР"</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>125212, Город Москва, вн.тер.г. муниципальный округ Головинский, ш Головинское, Дом 5, Корпус 1</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/aqara-elektroprivod-sharovogo-krana-t1-vc-x01d-1786557610/?at=GRt2Nn95KijMpRj7u7mNq9wUXYJYA5h1mKOwYS4DOXJQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1860362135</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ручка для шарового крана 1 дюйм,красная и синяя</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Краны</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>50 отзывов</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Морской Бриз</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/morskoy-briz-1945752/</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>ИП Котлышев Ильдар Сергеевич</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>324619600090826</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/ruchka-dlya-sharovogo-krana-1-dyuym-krasnaya-i-sinyaya-1860362135/?at=z6tOYDzoQcoyrV6zs8p6N9jI22nlKECNBovWBcyRzoLj</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>174120486</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Кран шаровый для воды 1/2" СTM СТАНДАРТ внутренняя резьба ручка-бабочка</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>СТМ</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1599</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>209 отзывов</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>ООО "САНТИМ-СТОЛИЦА"</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/ooo-santim-stolitsa-25830/</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>ООО САНТИМ-СТОЛИЦА</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>117418, Г.Москва, Москва, Новочерёмушкинская, 61, э.4</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/kran-sharovyy-dlya-vody-1-2-stm-standart-vnutrennyaya-rezba-ruchka-babochka-174120486/?at=GRt2Nn95KijDnPPU8KpZrJcmxDGDLCWYygPZfYZ36Ak</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1252534853</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Кран угловой 1/2, для горячей и холодной воды, комплект 2шт</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>SUS 304</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>165 отзывов</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Домашний сантехник</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/domashniy-santehnik-767201/</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>ИП Слинючева Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>315500900001604</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/kran-uglovoy-1-2-dlya-goryachey-i-holodnoy-vody-komplekt-2sht-1252534853/?at=pZtp0kZ31UXBxrzGFXgp2rKh9nrGXzip139QKFQgvJjv</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1002152422</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Кран шаровый Bugatti Oregon (327), НР-НР (бабочка) 1/2"</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Bugatti Valvosanitaria</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>60 отзывов</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Platinum Group</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/platinum-group-1175217/</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>ИП Адамян Марине Мовсесовна</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>323508100278472</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/kran-sharovyy-bugatti-oregon-327-nr-nr-babochka-1-2-1002152422/?at=oZt6V9m3jF9k248VsXyOL6GInYV8lpSDrlnv6sxxk5LE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1856845947</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Кран шаровый водоразборный с носиком VALVE V02FM-3 1/2 нр</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>TIM</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2352</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>48 отзывов</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>JERM</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/jerm-2047447/</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>ИП Апресян Тигран Гагикович</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>323508100294439</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/kran-sharovyy-vodorazbornyy-s-nosikom-valve-v02fm-3-1-2-nr-1856845947/?at=lRt6wGlN0FRWEm7TAo5pp5SEkOxlwconEZr2f07lmZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1926594903</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Кран шаровой OPTIMA 1/2, ручка рычаг, 1 штука, оптима</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>OPTIMA</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>25 отзывов</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>ИП Архипова Анна Юрьевна</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/ip-arhipova-anna-yurevna-1398644/</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>ИП Архипова Анна Юрьевна</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>323344300094466</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/kran-sharovoy-optima-1-2-ruchka-rychag-1-shtuka-optima-1926594903/?at=83tB53gpDIEpjNNlTJWA0D6F0Y1578hVLkX8AUJ4rl0L</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>474837451</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Бугатти Кран шаровый 3/4 г. г. (ручка)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Bugatti Valvosanitaria</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>747</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>116 отзывов</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1000 Мелочей</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/1000-melochey-333466/</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>ИП Арутюнян Наира Гагиковна</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>322508100010200</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/bugatti-kran-sharovyy-3-4-g-g-ruchka-474837451/?at=XQtkPAZoVh2L37R6irYo0LptxNDX1DfMZ1Y9JSQLjJEA</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1410870112</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Кран шаровой ROMMER ВР/ВР ручка рычаг 3/4 RBV-0001-2110320</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ROMMER</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>314 отзывов</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Jakko</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/jakko-1384222/</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>ООО "ТЕХСТРОЙТОРГ"</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>142032, Россия, Московская Область, г Домодедово, Сиреневая аллея, 1, д 1А, 3 ком. 1</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/kran-sharovoy-rommer-vr-vr-ruchka-rychag-3-4-rbv-0001-2110320-1410870112/?at=XQtkPAZoVhgy6MyBsq78goxtX37LPWivAz6q5I7lxYZk</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1410869694</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Шаровой кран ROMMER RBV-0001-2110315 1/2" ВН/ВН ручка рычаг</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ROMMER</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>856 отзывов</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Jakko</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/jakko-1384222/</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>ООО "ТЕХСТРОЙТОРГ"</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>142032, Россия, Московская Область, г Домодедово, Сиреневая аллея, 1, д 1А, 3 ком. 1</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/sharovoy-kran-rommer-rbv-0001-2110315-1-2-vn-vn-ruchka-rychag-1410869694/?at=ywtAPD35quKrg6v3clOkLLWT1mPJQJcmDVE39srY2K13</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2038138704</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>BUGATTI Кран шаровой, ВP/НР, стальной рычаг, арт.306, 3/4"</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Bugatti Valvosanitaria</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1340</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>30 отзывов</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>ART-STROY</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/art-stroy-771393/</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>ИП Айвазян Артур Самвелович</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>322774600721463</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/bugatti-kran-sharovoy-vp-nr-stalnoy-rychag-art-306-3-4-2038138704/?at=08tYXvzwqcoMyVyWuZRpjjnfo5NMKNIkjlRzLH4rmpyx</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1309408726</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Кран шаровый Bugatti (327) 1/2" НН бабочка</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Bugatti Valvosanitaria</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>688</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>736</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>951</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>5 отзывов</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>МИР САНТЕХНИКИ</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/mir-santehniki-1540933/</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ИП Калантарян Лиана Жораевна</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>313344321400080</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/kran-sharovyy-bugatti-327-1-2-nn-babochka-1309408726/?at=DqtDLpZlNcjgvpOKHOQw3Mzt708n84fPMQK2F2AoGER</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>674799018</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Кран шаровой полнопроходной ВР-ВР, рычаг из стали Gappo G226.08 11/2"x11/2" уп. 1 шт.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Gappo</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Gappo Official Store</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/gappo-official-store-15864/</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ИП Волченков Кирилл Алексеевич</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>318774600386550</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/kran-sharovoy-polnoprohodnoy-vr-vr-rychag-iz-stali-gappo-g226-08-11-2-x11-2-up-1-sht-674799018/?at=46tR2PxKMHyxL9Q5hwy7vP2cpvD9ynSolM0YNCxQO3vY</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1359745002</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Кран шаровый 1/2" НРхВР Veher, 1 шт латунь, ручка бабочка / кран шаровый латунный</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>VEHER</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2 238 отзывов</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>РУСХИТ</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/rushit-1369103/</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ООО "Р-СЕРВИС"</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>129226, г. Москва, ул. Сельскохозяйственная, д.11, корп.3, эт.1, пом.II, ком.1 (РМ140)</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/kran-sharovyy-1-2-nrhvr-veher-1-sht-latun-ruchka-babochka-kran-sharovyy-latunnyy-1359745002/?at=MZtvyPY4MC1D0qVotoyn57oCEGnXKmCz931zwi6l7DJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>249497699</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Кран шаровой полнопроходной НР-НР, бабочка из алюминия Gappo G228.06 1"x1" уп. 1 шт.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Gappo</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2 отзыва</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Gappo Official Store</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/gappo-official-store-15864/</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ИП Волченков Кирилл Алексеевич</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>318774600386550</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/kran-sharovoy-polnoprohodnoy-nr-nr-babochka-iz-alyuminiya-gappo-g228-06-1-x1-up-1-sht-249497699/?at=PjtJ1gnE8crK7PDWTVNl7B5frNN6OJilqYrXnSVOv1Eq</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1309408927</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Кран шаровый Bugatti (301) 1/2" ВВ ручка</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Bugatti Valvosanitaria</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>905</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>72 отзыва</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>МИР САНТЕХНИКИ</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/mir-santehniki-1540933/</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ИП Калантарян Лиана Жораевна</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>313344321400080</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/kran-sharovyy-bugatti-301-1-2-vv-ruchka-1309408927/?at=pZtp0kZ31UY0X7jOS2JW0xLUGWOvoNhX16MPLIP8qlDm</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1845925921</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Кран шаровой ВР/НР 3/4" бабочка, с американкой ZEGOR</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ZEGOR</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>838</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2352</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>3 отзыва</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>FEOTON</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/feoton-1258352/</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ИП Гришин Андрей Павлович</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>320623400039833</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/kran-sharovoy-vr-nr-3-4-babochka-s-amerikankoy-zegor-1845925921/?at=WPtNL38mRszLlKooU0rY11lsMJWzQOuxoKKL0tWAYLxv</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1319117444</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Кран шаровый 1/2" с внутренней и наружной резьбой (2 шт), ГАЛЛОП, серия "Практик"</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Галлоп</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>722</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1600</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2 924 отзыва</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>AZEL</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/azel-1373437/</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>ИП Фатхуллина Эльвира Гумяровна, ИП</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>323730000050351</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/kran-sharovyy-1-2-s-vnutrenney-i-naruzhnoy-rezboy-2-sht-gallop-seriya-praktik-1319117444/?at=r2t4RMOlPh05vN9zTLOqNpZu5V9ZB5CZ4kERMCm1mJY</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2157099437</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Кран шаровый полипропиленовый PPR ППР D50 (1 шт.) для холодной и горячей воды, отопления</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Краны</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1299</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>143 отзыва</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>AV-GROUP</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/av-group-2885313/</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>ИП Белоус Евгений Анатольевич</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>325665800094191</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/kran-sharovyy-polipropilenovyy-ppr-ppr-d50-1-sht-dlya-holodnoy-i-goryachey-vody-otopleniya-2157099437/?at=PjtJ1gnE8c9wl12KuL9AB77f9QPg30Uzr17vmT9mVy8p</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>174150686</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Кран шаровый для стиральной и посудомоечной машины СTM 1/2"x3/4"x1/2" гайка-штуцер-штуцер флажок, никел.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>СТМ</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1399</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>840 отзывов</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>ООО "САНТИМ-СТОЛИЦА"</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/ooo-santim-stolitsa-25830/</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>ООО САНТИМ-СТОЛИЦА</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>117418, Г.Москва, Москва, Новочерёмушкинская, 61, э.4</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/kran-sharovyy-dlya-stiralnoy-i-posudomoechnoy-mashiny-stm-1-2-x3-4-x1-2-gayka-shtutser-shtutser-174150686/?at=PjtJ1gnE8c7jznlnSLVVDVZfnMOxRQcBAN6kBsLPZMPN</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>824327210</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Кран шаровой латунный Bugatti (03070176) 1/2 ВР(г) х 1/2 НР(ш) бабочка прямой</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Bugatti Valvosanitaria</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>685</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>104 отзыва</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>ART-STROY</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/art-stroy-771393/</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>ИП Айвазян Артур Самвелович</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>322774600721463</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/kran-sharovoy-latunnyy-bugatti-03070176-1-2-vr-g-h-1-2-nr-sh-babochka-pryamoy-824327210/?at=28t02rQzPCBqOlzAs31DKO2cmXJJnJc1lqqKJClyR1V9</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1946609040</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Кран шаровой угловой с накидной гайкой 1/2" с наружной резьбой TIM арт. BV211-C02N</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>TIM</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>22 отзыва</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>АМС сантехника</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/ams-santehnika-139084/</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>ИП Аперян Манвел Сергеевич</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>309774611201220</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/kran-sharovoy-uglovoy-s-nakidnoy-gaykoy-1-2-s-naruzhnoy-rezboy-tim-art-bv211-c02n-1946609040/?at=oZt6V9m3jFpMx6G1fYjNZ2gfGXgvl5CYNqDDPs6VGW0A</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1959962946</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Кран шаровый для воды 3/4" гайка-штуцер рычаг (5шт)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>СТМ</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2113</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2257</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4999</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>919 отзывов</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>ООО "САНТИМ-СТОЛИЦА"</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/ooo-santim-stolitsa-25830/</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>ООО САНТИМ-СТОЛИЦА</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>117418, Г.Москва, Москва, Новочерёмушкинская, 61, э.4</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/kran-sharovyy-dlya-vody-3-4-gayka-shtutser-rychag-5sht-1959962946/?at=XQtkPAZoVhGE3mk2TL1vY7nIj1LRPlU2O9vMYuVZwB7N</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1832759439</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Шаровой кран 1/2 дюйм RTP вн/нар PN 25 латунный, ручка рычаг</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>RTP</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>203 отзыва</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>УК  Волмакс</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/uk-volmaks-2503612/</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>ООО "УК "ВОЛМАКС"</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>140304, Россия, Московская Область, г Егорьевск, ул Антипова, д 48Б</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/sharovoy-kran-1-2-dyuym-rtp-vn-nar-pn-25-latunnyy-ruchka-rychag-1832759439/?at=z6tOYDzoQc2z1Q1rCoxlJ2pfMx59PncMBRQ2nHV0NE3R</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1959752933</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Кран шаровый для воды СTM СТАНДАРТ 1/2" водоразборный бабочка (3 шт)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>СТМ</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2999</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>102 отзыва</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>ООО "САНТИМ-СТОЛИЦА"</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/ooo-santim-stolitsa-25830/</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ООО САНТИМ-СТОЛИЦА</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>117418, Г.Москва, Москва, Новочерёмушкинская, 61, э.4</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/kran-sharovyy-dlya-vody-stm-standart-1-2-vodorazbornyy-babochka-3-sht-1959752933/?at=pZtp0kZ31Uxv1yKmUgxgYRWc7D31rMF01EQpRiKjqK4J</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1959797650</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Кран шаровый для воды СTM СТАНДАРТ 3/4" водоразборный рычаг (3 шт)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>СТМ</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1646</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1759</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4099</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>1 562 отзыва</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>ООО "САНТИМ-СТОЛИЦА"</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/ooo-santim-stolitsa-25830/</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ООО САНТИМ-СТОЛИЦА</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>117418, Г.Москва, Москва, Новочерёмушкинская, 61, э.4</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/kran-sharovyy-dlya-vody-stm-standart-3-4-vodorazbornyy-rychag-3-sht-1959797650/?at=WPtNL38mRs1W8PRRuKWwqvDSvJqO2KCMDWLOWfQm9wVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1988370866</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Мини кран шаровой хромированный 1/2" ВР/НР TIM DE22MF</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>TIM</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>619</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>53 отзыва</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Ренессанс</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/renessans-2698426/</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ИП Григорян Амест Айказовна</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>325508100135801</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/mini-kran-sharovoy-hromirovannyy-1-2-vr-nr-tim-de22mf-1988370866/?at=oZt6V9m3jFEgMlPVIV3V6Q4S8n4moxiglzm5rHJgr69L</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1410871617</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Кран шаровой ROMMER угловой с американкой ВР/НР ручка бабочка 1/2 RBV-0006-2610215</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>ROMMER</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>512 отзывов</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Jakko</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/jakko-1384222/</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>ООО "ТЕХСТРОЙТОРГ"</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>142032, Россия, Московская Область, г Домодедово, Сиреневая аллея, 1, д 1А, 3 ком. 1</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/kran-sharovoy-rommer-uglovoy-s-amerikankoy-vr-nr-ruchka-babochka-1-2-rbv-0006-2610215-1410871617/?at=GRt2Nn95Ki4EpvntvP5kBXfp3lyw7hY6E3DghpLpxQN</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1715723947</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Кран шаровый 1/2" ГАЛЛОП, вн-нар, ручка - 2 шт.</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Галлоп</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>890</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>1 860 отзывов</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>MixMART</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/mixmart-2337280/</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ИП Заволокина Любовь Николаевна</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>324460000039577</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/kran-sharovyy-1-2-gallop-vn-nar-ruchka-2-sht-1715723947/?at=w0tgE6n3JIlLwAqpuAoEPYKskX8V3iwREVwzhGQQ5ox</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1000813850</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Кран шаровой НВ (наружно-внутренний) Bugatti Oregon 307 1/2 бабочка</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Bugatti Valvosanitaria</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>747</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1078</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>225 отзывов</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>ГК ЮДИС</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/gk-yudis-1089109/</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>ИП Авалян Армен Жораи</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>320344300037267</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/kran-sharovoy-nv-naruzhno-vnutrenniy-bugatti-oregon-307-1-2-babochka-1000813850/?at=nRtrZwVNAc5P4LXxI0WVyj8CZlg9n0smgDvnnS8jPDZD</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>174407339</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Кран шаровый для стиральной машины угловой СTM 1/2"х3/8" штуцер-штуцер с цангой и отражателем бабочка, хром, CACR1238</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>СТМ</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>63 отзыва</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>ООО "САНТИМ-СТОЛИЦА"</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/ooo-santim-stolitsa-25830/</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ООО САНТИМ-СТОЛИЦА</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>117418, Г.Москва, Москва, Новочерёмушкинская, 61, э.4</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/kran-sharovyy-dlya-stiralnoy-mashiny-uglovoy-stm-1-2-h3-8-shtutser-shtutser-s-tsangoy-i-174407339/?at=oZt6V9m3jFvP54jmS7GMYy5Hpk41wvi6nQqJRflGprE6</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>174299737</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Кран шаровый для воды 1/2", наружная резьба СТМ СТАНДАРТ</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>СТМ</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1499</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>779 отзывов</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>ООО "САНТИМ-СТОЛИЦА"</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/ooo-santim-stolitsa-25830/</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ООО САНТИМ-СТОЛИЦА</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>117418, Г.Москва, Москва, Новочерёмушкинская, 61, э.4</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/kran-sharovyy-dlya-vody-1-2-naruzhnaya-rezba-stm-standart-174299737/?at=jYtZ4E0QKCzv0D07u539xWBFW5KAoWT1zvE1jiL8YlWy</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1449547174</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Кран шаровый 1/2" для воды бабочка, никель, ONDO</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ONDO</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1499</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>19 отзывов</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>ООО "САНТИМ-СТОЛИЦА"</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/ooo-santim-stolitsa-25830/</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ООО САНТИМ-СТОЛИЦА</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>117418, Г.Москва, Москва, Новочерёмушкинская, 61, э.4</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>https://ozon.ru/product/kran-sharovyy-1-2-dlya-vody-babochka-nikel-ondo-1449547174/?at=QktJ1VLjMc0RQgDlHKnQYJ3f3x90yWTo7842lfq9GN8</t>
         </is>
       </c>
     </row>
